--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86498.08611348443</v>
+        <v>78006.54962961684</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737735</v>
+        <v>17594155.61720906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16373502.16775415</v>
+        <v>15820853.8764602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3634717.71458549</v>
+        <v>3832584.897612996</v>
       </c>
     </row>
     <row r="11">
@@ -2087,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>179.4404601920395</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>72.08725208919866</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>52.30718827170665</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>68.56379212038598</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2248,10 +2250,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3221462664568207</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>21.69946940036153</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179.4404601920395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>83.7221332419082</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>117.0997133290437</v>
+        <v>102.7994924795546</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
         <v>195.3773027531635</v>
@@ -2457,10 +2459,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>110.4827588140764</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>175.4647255438876</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>345.3811968772827</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>181.7401308265976</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>54.202925671511</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6.92691122580971</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>13.98329378456267</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>16.39649885149681</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.6621491913814</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>390.1527797502169</v>
+        <v>343.646568403991</v>
       </c>
       <c r="E29" t="n">
         <v>390.1527797502169</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2871,25 +2873,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,16 +2924,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>68.36452055758777</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>144.0658049444344</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>140.2558790731718</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>24.58585587413494</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3038,61 +3040,61 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>206.5834262457109</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.537471181140739</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>346.3391791168841</v>
+      </c>
+      <c r="W32" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X32" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="H32" t="n">
-        <v>307.7994123985592</v>
-      </c>
-      <c r="I32" t="n">
-        <v>85.48824505609757</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>133.9282644538401</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>24.2942815721174</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>10.28692929964635</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.02990584219687</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>180.1867230488785</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.7183039501509</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>269.555124012547</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>96.5546107088675</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3402,16 +3404,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>85.31857412307389</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>42.43741174507667</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>237.0894618789262</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>343.6465684039909</v>
       </c>
       <c r="X38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>7.965018085886386</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3594,13 +3596,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
         <v>195.3773027531635</v>
@@ -3645,10 +3647,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>135.3112205476272</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>29.06736062834969</v>
+        <v>166.6895325984407</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="F41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G41" t="n">
-        <v>390.1527797502169</v>
+        <v>343.6465684039908</v>
       </c>
       <c r="H41" t="n">
-        <v>99.3867634749399</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>38.6973077781095</v>
       </c>
       <c r="V42" t="n">
-        <v>52.78076342756878</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.01598051309922</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3958,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>387.4601690373236</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>66.26137794101579</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>68.58775494387491</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="C20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="D20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="E20" t="n">
-        <v>736.2144366717104</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="F20" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G20" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H20" t="n">
         <v>31.21222238001735</v>
@@ -5753,25 +5755,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="L20" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="M20" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="N20" t="n">
         <v>671.6489458004863</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>1057.900197753201</v>
       </c>
-      <c r="M20" t="n">
-        <v>1444.151449705916</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1520.054473311303</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1520.054473311303</v>
-      </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R20" t="n">
         <v>1560.611119000868</v>
@@ -5783,19 +5785,19 @@
         <v>1203.123559741827</v>
       </c>
       <c r="U20" t="n">
-        <v>1130.308153591121</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V20" t="n">
-        <v>1130.308153591121</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="X20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="Y20" t="n">
-        <v>1130.308153591121</v>
+        <v>212.4652124729866</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L21" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4634743327321</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="N21" t="n">
-        <v>417.4634743327321</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O21" t="n">
-        <v>794.9558830015396</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R21" t="n">
         <v>1560.611119000868</v>
@@ -5859,19 +5861,19 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T21" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.621109115176</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V21" t="n">
-        <v>1238.90958210821</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W21" t="n">
-        <v>1186.074038399415</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="X21" t="n">
-        <v>1009.748056538308</v>
+        <v>919.6024525792959</v>
       </c>
       <c r="Y21" t="n">
         <v>850.3460969021384</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>351.6176821887879</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C22" t="n">
-        <v>351.6176821887879</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D22" t="n">
-        <v>192.1230375116979</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E22" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F22" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G22" t="n">
         <v>31.21222238001735</v>
@@ -5911,13 +5913,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N22" t="n">
         <v>1029.84703862227</v>
@@ -5932,28 +5934,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.06237997757</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.264232523694</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V22" t="n">
-        <v>764.3784874632158</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W22" t="n">
-        <v>764.0530871940675</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X22" t="n">
-        <v>764.0530871940675</v>
+        <v>1267.027976596216</v>
       </c>
       <c r="Y22" t="n">
-        <v>539.3173885828322</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="C23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5996,19 +5998,19 @@
         <v>1057.900197753201</v>
       </c>
       <c r="M23" t="n">
-        <v>1057.900197753201</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N23" t="n">
-        <v>1444.151449705916</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O23" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P23" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q23" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
@@ -6026,13 +6028,13 @@
         <v>596.225513337818</v>
       </c>
       <c r="W23" t="n">
-        <v>212.4652124729866</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="X23" t="n">
-        <v>212.4652124729866</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.4652124729866</v>
+        <v>511.6577019823552</v>
       </c>
     </row>
     <row r="24">
@@ -6069,49 +6071,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K24" t="n">
-        <v>31.21222238001735</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="L24" t="n">
-        <v>417.4634743327321</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4634743327321</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N24" t="n">
-        <v>788.1086150954382</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O24" t="n">
-        <v>1174.359867048153</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P24" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q24" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T24" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U24" t="n">
-        <v>1255.270298253395</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V24" t="n">
-        <v>1041.558771246429</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W24" t="n">
-        <v>828.3256029827575</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="X24" t="n">
-        <v>828.3256029827575</v>
+        <v>813.880935458021</v>
       </c>
       <c r="Y24" t="n">
-        <v>828.3256029827575</v>
+        <v>813.880935458021</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9386174866106</v>
+        <v>630.7621873641457</v>
       </c>
       <c r="C25" t="n">
-        <v>799.8452450483271</v>
+        <v>459.6688149258622</v>
       </c>
       <c r="D25" t="n">
-        <v>640.3506003712371</v>
+        <v>459.6688149258622</v>
       </c>
       <c r="E25" t="n">
-        <v>479.4397852395565</v>
+        <v>459.6688149258622</v>
       </c>
       <c r="F25" t="n">
-        <v>314.8086593501478</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G25" t="n">
-        <v>147.5582682756912</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I25" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J25" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L25" t="n">
         <v>459.7441997875264</v>
@@ -6184,13 +6186,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.611119000868</v>
+        <v>1281.541454509742</v>
       </c>
       <c r="X25" t="n">
-        <v>1383.37402249189</v>
+        <v>1043.197592369425</v>
       </c>
       <c r="Y25" t="n">
-        <v>1158.638323880655</v>
+        <v>818.4618937581901</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>774.1758351350675</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C26" t="n">
-        <v>774.1758351350675</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D26" t="n">
-        <v>774.1758351350675</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E26" t="n">
-        <v>380.0821182156565</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F26" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H26" t="n">
         <v>31.21222238001735</v>
@@ -6224,52 +6226,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M26" t="n">
-        <v>40.13971065786654</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O26" t="n">
-        <v>812.642214563296</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R26" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T26" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U26" t="n">
-        <v>1168.269552054478</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V26" t="n">
-        <v>1168.269552054478</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="W26" t="n">
-        <v>1168.269552054478</v>
+        <v>919.7903263955463</v>
       </c>
       <c r="X26" t="n">
-        <v>1168.269552054478</v>
+        <v>525.6966094761353</v>
       </c>
       <c r="Y26" t="n">
-        <v>774.1758351350675</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="27">
@@ -6282,22 +6284,22 @@
         <v>192.9527650369019</v>
       </c>
       <c r="C27" t="n">
-        <v>138.2023350656787</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D27" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="E27" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="F27" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="G27" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H27" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
@@ -6306,25 +6308,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M27" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N27" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O27" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P27" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>356.8764423036677</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C28" t="n">
-        <v>356.8764423036677</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D28" t="n">
-        <v>197.3817976265777</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E28" t="n">
-        <v>197.3817976265777</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F28" t="n">
-        <v>180.8196775745607</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G28" t="n">
-        <v>180.8196775745607</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H28" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6409,25 +6411,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V28" t="n">
-        <v>1286.72537394039</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="W28" t="n">
-        <v>1007.655709449264</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="X28" t="n">
-        <v>769.3118473089473</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="Y28" t="n">
-        <v>544.576148697712</v>
+        <v>1134.67061185748</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1213.49337313825</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C29" t="n">
-        <v>1213.49337313825</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D29" t="n">
         <v>819.3996562188394</v>
@@ -6464,25 +6466,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L29" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M29" t="n">
-        <v>671.6489458004863</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N29" t="n">
-        <v>1057.900197753201</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O29" t="n">
-        <v>1174.359867048153</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P29" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q29" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R29" t="n">
         <v>1560.611119000868</v>
@@ -6491,22 +6493,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>260.6649182051848</v>
+        <v>480.5903684413843</v>
       </c>
       <c r="C30" t="n">
-        <v>260.6649182051848</v>
+        <v>346.59529719033</v>
       </c>
       <c r="D30" t="n">
-        <v>260.6649182051848</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="E30" t="n">
-        <v>140.1721021975128</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="F30" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G30" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H30" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K30" t="n">
-        <v>610.2763318953653</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L30" t="n">
-        <v>610.2763318953653</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M30" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N30" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O30" t="n">
-        <v>996.52758384808</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P30" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q30" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
@@ -6570,22 +6572,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T30" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U30" t="n">
-        <v>1095.928434440403</v>
+        <v>1383.566037844886</v>
       </c>
       <c r="V30" t="n">
-        <v>882.216907433437</v>
+        <v>1169.854510837919</v>
       </c>
       <c r="W30" t="n">
-        <v>736.6958923380487</v>
+        <v>956.6213425742483</v>
       </c>
       <c r="X30" t="n">
-        <v>560.3699104769414</v>
+        <v>780.295360713141</v>
       </c>
       <c r="Y30" t="n">
-        <v>400.9679508407714</v>
+        <v>620.893401076971</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.6428572028094</v>
+        <v>765.5833643461972</v>
       </c>
       <c r="C31" t="n">
-        <v>339.6428572028094</v>
+        <v>765.5833643461972</v>
       </c>
       <c r="D31" t="n">
-        <v>339.6428572028094</v>
+        <v>606.0887196691071</v>
       </c>
       <c r="E31" t="n">
-        <v>339.6428572028094</v>
+        <v>606.0887196691071</v>
       </c>
       <c r="F31" t="n">
-        <v>339.6428572028094</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G31" t="n">
-        <v>172.3924661283528</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H31" t="n">
         <v>147.5582682756912</v>
@@ -6622,13 +6624,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6646,25 +6648,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T31" t="n">
-        <v>1134.67061185748</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U31" t="n">
-        <v>851.872464403604</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V31" t="n">
-        <v>577.986719343126</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W31" t="n">
-        <v>577.986719343126</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="X31" t="n">
-        <v>339.6428572028094</v>
+        <v>765.5833643461972</v>
       </c>
       <c r="Y31" t="n">
-        <v>339.6428572028094</v>
+        <v>765.5833643461972</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1425.330043794968</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="C32" t="n">
-        <v>1425.330043794968</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="D32" t="n">
-        <v>1031.236326875557</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="E32" t="n">
-        <v>1031.236326875557</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="F32" t="n">
-        <v>822.5661993546372</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="G32" t="n">
-        <v>428.4724824352262</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="H32" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I32" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>361.3007174531585</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L32" t="n">
-        <v>361.3007174531585</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M32" t="n">
-        <v>361.3007174531585</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N32" t="n">
-        <v>747.5519694058733</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O32" t="n">
-        <v>1133.803221358588</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R32" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V32" t="n">
-        <v>1425.330043794968</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W32" t="n">
-        <v>1425.330043794968</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X32" t="n">
-        <v>1425.330043794968</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="Y32" t="n">
-        <v>1425.330043794968</v>
+        <v>432.9195465531059</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>593.1459064859441</v>
+        <v>600.5876713711716</v>
       </c>
       <c r="C33" t="n">
-        <v>459.1508352348899</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D33" t="n">
         <v>459.1508352348899</v>
@@ -6777,52 +6779,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L33" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M33" t="n">
-        <v>788.1086150954382</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N33" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.359867048153</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U33" t="n">
-        <v>1293.279245302185</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V33" t="n">
-        <v>1079.567718295218</v>
+        <v>1149.54878113212</v>
       </c>
       <c r="W33" t="n">
-        <v>1069.176880618808</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="X33" t="n">
-        <v>892.8508987577007</v>
+        <v>759.9896310073416</v>
       </c>
       <c r="Y33" t="n">
-        <v>733.4489391215308</v>
+        <v>600.5876713711716</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="C34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="D34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="E34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F34" t="n">
-        <v>198.4626134544739</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G34" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H34" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6859,13 +6861,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L34" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6889,19 +6891,19 @@
         <v>1049.39789353288</v>
       </c>
       <c r="U34" t="n">
-        <v>766.5997460790038</v>
+        <v>867.3911025744164</v>
       </c>
       <c r="V34" t="n">
-        <v>492.7140010185257</v>
+        <v>867.3911025744164</v>
       </c>
       <c r="W34" t="n">
-        <v>213.6443365274001</v>
+        <v>867.3911025744164</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.6443365274001</v>
+        <v>629.0472404340999</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E35" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F35" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G35" t="n">
         <v>31.21222238001735</v>
@@ -6938,49 +6940,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L35" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="M35" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N35" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O35" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R35" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T35" t="n">
-        <v>1213.49337313825</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U35" t="n">
-        <v>1213.49337313825</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V35" t="n">
-        <v>1213.49337313825</v>
+        <v>809.0662401642599</v>
       </c>
       <c r="W35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.0430642665517</v>
+        <v>673.5779028224343</v>
       </c>
       <c r="C36" t="n">
         <v>576.0479930154975</v>
@@ -7017,22 +7019,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K36" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L36" t="n">
-        <v>31.21222238001735</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4634743327321</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N36" t="n">
-        <v>438.2641504114549</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O36" t="n">
-        <v>824.5154023641696</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P36" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q36" t="n">
         <v>1560.611119000868</v>
@@ -7041,25 +7043,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U36" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V36" t="n">
-        <v>1095.928434440403</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W36" t="n">
-        <v>1095.928434440403</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="X36" t="n">
-        <v>1009.748056538308</v>
+        <v>813.880935458021</v>
       </c>
       <c r="Y36" t="n">
-        <v>850.3460969021384</v>
+        <v>813.880935458021</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>357.9572581315639</v>
+        <v>74.07829484979177</v>
       </c>
       <c r="C37" t="n">
-        <v>357.9572581315639</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D37" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E37" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F37" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G37" t="n">
         <v>31.21222238001735</v>
@@ -7117,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U37" t="n">
-        <v>1288.946632556178</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V37" t="n">
-        <v>1049.462327627969</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W37" t="n">
-        <v>770.3926631368436</v>
+        <v>724.8575619953881</v>
       </c>
       <c r="X37" t="n">
-        <v>770.3926631368436</v>
+        <v>486.5136998550715</v>
       </c>
       <c r="Y37" t="n">
-        <v>545.6569645256083</v>
+        <v>261.7780012438362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.6633842972142</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="C38" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D38" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E38" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F38" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J38" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L38" t="n">
-        <v>803.7147262854468</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M38" t="n">
-        <v>803.7147262854468</v>
+        <v>1444.151449705915</v>
       </c>
       <c r="N38" t="n">
-        <v>1174.359867048153</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="O38" t="n">
-        <v>1174.359867048153</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P38" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q38" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W38" t="n">
-        <v>1176.850818136036</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="X38" t="n">
-        <v>782.7571012166252</v>
+        <v>819.3996562188391</v>
       </c>
       <c r="Y38" t="n">
-        <v>388.6633842972142</v>
+        <v>819.3996562188391</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492.5976614854803</v>
+        <v>532.3057386166065</v>
       </c>
       <c r="C39" t="n">
-        <v>484.5521886714537</v>
+        <v>398.3106673655521</v>
       </c>
       <c r="D39" t="n">
-        <v>367.6550308908461</v>
+        <v>281.4135095849446</v>
       </c>
       <c r="E39" t="n">
-        <v>247.1622148831741</v>
+        <v>160.9206935772726</v>
       </c>
       <c r="F39" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="H39" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>610.2763318953653</v>
+        <v>372.2978437800932</v>
       </c>
       <c r="L39" t="n">
-        <v>996.52758384808</v>
+        <v>758.5490957328078</v>
       </c>
       <c r="M39" t="n">
-        <v>1144.800347685523</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="O39" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P39" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S39" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T39" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U39" t="n">
-        <v>1255.270298253395</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V39" t="n">
-        <v>1041.558771246429</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W39" t="n">
-        <v>828.3256029827575</v>
+        <v>668.9837391697653</v>
       </c>
       <c r="X39" t="n">
-        <v>651.9996211216503</v>
+        <v>532.3057386166065</v>
       </c>
       <c r="Y39" t="n">
-        <v>492.5976614854803</v>
+        <v>532.3057386166065</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.5731927116837</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="C40" t="n">
-        <v>31.21222238001735</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D40" t="n">
-        <v>31.21222238001735</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E40" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F40" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G40" t="n">
         <v>31.21222238001735</v>
@@ -7330,7 +7332,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K40" t="n">
         <v>199.8470995074659</v>
@@ -7339,7 +7341,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7348,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880778</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.67061185748</v>
+        <v>1134.670611857479</v>
       </c>
       <c r="U40" t="n">
-        <v>851.872464403604</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="V40" t="n">
-        <v>577.986719343126</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="W40" t="n">
-        <v>298.9170548520003</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="X40" t="n">
-        <v>60.5731927116837</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.5731927116837</v>
+        <v>851.8724644036035</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>919.7903263955463</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="C41" t="n">
-        <v>919.7903263955463</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="D41" t="n">
-        <v>919.7903263955463</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="E41" t="n">
-        <v>919.7903263955463</v>
+        <v>772.4236851620452</v>
       </c>
       <c r="F41" t="n">
-        <v>525.6966094761353</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="G41" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H41" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L41" t="n">
-        <v>671.6489458004863</v>
+        <v>80.69635634743133</v>
       </c>
       <c r="M41" t="n">
-        <v>671.6489458004863</v>
+        <v>466.9476083001459</v>
       </c>
       <c r="N41" t="n">
-        <v>671.6489458004863</v>
+        <v>853.1988602528605</v>
       </c>
       <c r="O41" t="n">
-        <v>1057.900197753201</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U41" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V41" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W41" t="n">
-        <v>919.7903263955463</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X41" t="n">
-        <v>919.7903263955463</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Y41" t="n">
-        <v>919.7903263955463</v>
+        <v>1560.611119000867</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>710.0430642665517</v>
+        <v>618.5472599225079</v>
       </c>
       <c r="C42" t="n">
-        <v>576.0479930154975</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D42" t="n">
-        <v>459.1508352348899</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E42" t="n">
-        <v>338.6580192272179</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F42" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G42" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H42" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J42" t="n">
         <v>224.0250799426506</v>
@@ -7494,46 +7496,46 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L42" t="n">
-        <v>610.2763318953653</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="M42" t="n">
-        <v>758.5490957328082</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="N42" t="n">
-        <v>1144.800347685523</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="O42" t="n">
-        <v>1144.800347685523</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P42" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q42" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S42" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T42" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U42" t="n">
-        <v>1452.621109115176</v>
+        <v>1521.522929326009</v>
       </c>
       <c r="V42" t="n">
-        <v>1399.307206663087</v>
+        <v>1307.811402319043</v>
       </c>
       <c r="W42" t="n">
-        <v>1186.074038399415</v>
+        <v>1094.578234055372</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.748056538308</v>
+        <v>918.2522521942645</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.3460969021384</v>
+        <v>758.8502925580946</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.21222238001735</v>
+        <v>267.97830240729</v>
       </c>
       <c r="C43" t="n">
-        <v>31.21222238001735</v>
+        <v>96.88492996900646</v>
       </c>
       <c r="D43" t="n">
-        <v>31.21222238001735</v>
+        <v>96.88492996900646</v>
       </c>
       <c r="E43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K43" t="n">
         <v>199.8470995074659</v>
@@ -7576,7 +7578,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7585,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R43" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556177</v>
       </c>
       <c r="T43" t="n">
-        <v>1321.06237997757</v>
+        <v>1049.397893532879</v>
       </c>
       <c r="U43" t="n">
-        <v>1038.264232523694</v>
+        <v>766.5997460790034</v>
       </c>
       <c r="V43" t="n">
-        <v>764.3784874632158</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="W43" t="n">
-        <v>485.3088229720902</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="X43" t="n">
-        <v>246.9649608317736</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.21222238001735</v>
+        <v>267.97830240729</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>816.6798474179369</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>816.6798474179369</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>816.6798474179369</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>816.6798474179369</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>338.6580192272178</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1401.269255187875</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>990.2069173191278</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>776.9737490554566</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>776.9737490554566</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>776.9737490554566</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>764.3784874632154</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>593.2851150249319</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1038.264232523693</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>764.3784874632154</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>764.3784874632154</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>764.3784874632154</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>764.3784874632154</v>
       </c>
     </row>
   </sheetData>
@@ -9401,28 +9403,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>169.5820115701414</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>277.0331152529795</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>431.9533148118579</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O21" t="n">
-        <v>439.0569423018259</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P21" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9644,22 +9646,22 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>210.9262540479058</v>
       </c>
       <c r="N23" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.7035252126741</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>400.3567134917629</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
@@ -9726,19 +9728,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>427.5824244671905</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O24" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P24" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
@@ -9881,7 +9883,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>102.3078893841658</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N26" t="n">
         <v>483.0650705068362</v>
@@ -9890,13 +9892,13 @@
         <v>483.342555376</v>
       </c>
       <c r="P26" t="n">
-        <v>483.8021430311011</v>
+        <v>211.2853928717445</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>272.2288842682561</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9966,16 +9968,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>447.9042587502169</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10112,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M29" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068362</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O29" t="n">
-        <v>210.8258052166435</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>431.9533148118579</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10206,13 +10208,13 @@
         <v>447.9042587502169</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>206.4630870275083</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>165.8061104867393</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>469.8744291362853</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O32" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10434,22 +10436,22 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110979</v>
       </c>
       <c r="O33" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10586,13 +10588,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M35" t="n">
-        <v>235.7076676518026</v>
+        <v>276.673976429141</v>
       </c>
       <c r="N35" t="n">
         <v>483.0650705068362</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N36" t="n">
-        <v>74.20417731165188</v>
+        <v>427.5824244671906</v>
       </c>
       <c r="O36" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>479.289169423434</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130617</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N38" t="n">
-        <v>467.3013218300598</v>
+        <v>169.5820115701416</v>
       </c>
       <c r="O38" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9785625348323</v>
+        <v>205.5962513072847</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M39" t="n">
-        <v>207.334752261087</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439669</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6381778130617</v>
+        <v>145.4693717673034</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O41" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P41" t="n">
-        <v>236.0668064756412</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M42" t="n">
-        <v>207.334752261087</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N42" t="n">
-        <v>443.3461731439669</v>
+        <v>202.9638619164193</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P42" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>237.9028412576018</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
@@ -11309,16 +11311,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11388,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>402.2824097071473</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>237.3796477338098</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.4026347338863</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>158.7936483093279</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>89.24414791942229</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>275.9568215797576</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>214.2609541185519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.678507675805</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24215,7 +24217,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -24224,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>296.2005646142749</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.80028898018708</v>
+        <v>36.10050982967618</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24333,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>52.5020558164382</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>60.49569797502582</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>71.43891104856658</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24503,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>215.1871754947932</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>78.45219486703274</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>108.8012749769918</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -24534,13 +24536,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>171.8394155455413</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.5883157790178</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.4568186764632</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>10.26651085765315</v>
+        <v>56.77272220387903</v>
       </c>
       <c r="E29" t="n">
         <v>20.04403357805535</v>
@@ -24731,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24759,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,16 +24812,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>127.0127821955757</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>67.03503163660011</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>22.72893555734282</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>123.525524768463</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>210.2366816801384</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>300.2619412174184</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24974,13 +24976,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>108.3608389664263</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25044,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>200.8139072813882</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>147.9549087883178</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>99.78344293045856</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25160,13 +25162,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>10.2661152624589</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>76.78405510433714</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>36.10050982967624</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>89.24414791942223</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25324,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>34.05742573094705</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762778</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25403,7 +25405,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>50.76435096807126</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25451,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>36.27612945219221</v>
       </c>
       <c r="X38" t="n">
-        <v>6.484184102520089</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>124.6901024526574</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>39.25150149486896</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -25549,19 +25551,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>140.315078085551</v>
+        <v>2.692906115459948</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25628,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805546</v>
       </c>
       <c r="F41" t="n">
-        <v>26.66732817563241</v>
+        <v>26.66732817563252</v>
       </c>
       <c r="G41" t="n">
-        <v>14.48822151587922</v>
+        <v>60.99443286210533</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4126489236193</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25682,13 +25684,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,16 +25757,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>156.6799949750539</v>
       </c>
       <c r="V42" t="n">
-        <v>158.7936483093277</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>94.2857264672645</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,10 +25873,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>22.73664429094868</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563252</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25922,7 +25924,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25931,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571174022</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>72.63862436821496</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,16 +25997,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26023,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>89.31194328644416</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492998.9861484421</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492998.9861484423</v>
+        <v>492998.9861484424</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492998.9861484423</v>
+        <v>492998.9861484424</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492998.9861484423</v>
+        <v>492998.9861484424</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492998.9861484423</v>
+        <v>492998.9861484424</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492998.9861484421</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492998.9861484424</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>19400.90910273512</v>
       </c>
       <c r="G2" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="H2" t="n">
-        <v>63612.77240625063</v>
+        <v>63612.77240625064</v>
       </c>
       <c r="I2" t="n">
         <v>63612.77240625063</v>
       </c>
       <c r="J2" t="n">
+        <v>63612.77240625067</v>
+      </c>
+      <c r="K2" t="n">
         <v>63612.77240625065</v>
       </c>
-      <c r="K2" t="n">
-        <v>63612.77240625067</v>
-      </c>
       <c r="L2" t="n">
-        <v>63612.77240625064</v>
+        <v>63612.77240625065</v>
       </c>
       <c r="M2" t="n">
-        <v>63612.77240625066</v>
+        <v>63612.77240625065</v>
       </c>
       <c r="N2" t="n">
-        <v>63612.77240625066</v>
+        <v>63612.77240625063</v>
       </c>
       <c r="O2" t="n">
-        <v>63612.77240625067</v>
+        <v>63612.77240625063</v>
       </c>
       <c r="P2" t="n">
-        <v>19400.90910273512</v>
+        <v>63612.77240625065</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>92221.97316067776</v>
       </c>
     </row>
     <row r="4">
@@ -26454,10 +26456,10 @@
         <v>338.3215741009759</v>
       </c>
       <c r="O4" t="n">
-        <v>338.3215741009759</v>
+        <v>338.3215741009758</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>338.3215741009758</v>
       </c>
     </row>
     <row r="5">
@@ -26503,13 +26505,13 @@
         <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="O5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23721.28900881318</v>
       </c>
     </row>
     <row r="6">
@@ -26534,7 +26536,7 @@
         <v>19400.90910273512</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="H6" t="n">
         <v>-65713.56952828981</v>
@@ -26543,25 +26545,25 @@
         <v>39553.16182333647</v>
       </c>
       <c r="J6" t="n">
+        <v>39553.1618233365</v>
+      </c>
+      <c r="K6" t="n">
         <v>39553.16182333649</v>
       </c>
-      <c r="K6" t="n">
-        <v>39553.16182333652</v>
-      </c>
       <c r="L6" t="n">
+        <v>39553.16182333649</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39553.16182333649</v>
+      </c>
+      <c r="N6" t="n">
         <v>39553.16182333647</v>
       </c>
-      <c r="M6" t="n">
-        <v>39553.1618233365</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39553.1618233365</v>
-      </c>
       <c r="O6" t="n">
-        <v>39553.1618233365</v>
+        <v>39553.16182333647</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>-52668.81133734126</v>
       </c>
     </row>
   </sheetData>
@@ -26823,13 +26825,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -36121,28 +36123,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M20" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>183.3837519720954</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>374.3890310734405</v>
+      </c>
+      <c r="N21" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>381.3054633018259</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P21" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L22" t="n">
         <v>262.5223235152127</v>
@@ -36364,22 +36366,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>9.017664927120396</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N26" t="n">
         <v>390.1527797502169</v>
@@ -36610,13 +36612,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4031014836407</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="P27" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K28" t="n">
         <v>156.1134623456949</v>
@@ -36832,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N29" t="n">
-        <v>390.1527797502169</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O29" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
         <v>262.5223235152127</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>76.66972081352215</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="O33" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K34" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L34" t="n">
         <v>262.5223235152127</v>
@@ -37239,7 +37241,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O34" t="n">
-        <v>262.1824346732063</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P34" t="n">
         <v>207.7529699491034</v>
@@ -37306,13 +37308,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
-        <v>142.4174431947572</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="N35" t="n">
         <v>390.1527797502169</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N36" t="n">
-        <v>21.01078391790188</v>
+        <v>374.3890310734406</v>
       </c>
       <c r="O36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N38" t="n">
-        <v>374.3890310734405</v>
+        <v>76.66972081352226</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="L39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M39" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445858</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P41" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M42" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>142.417443194757</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>344.5309307071473</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78006.54962961684</v>
+        <v>68318.33952397926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17594155.61720906</v>
+        <v>17030286.32704076</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15820853.8764602</v>
+        <v>15268205.58516626</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3832584.897612996</v>
+        <v>4114211.596506609</v>
       </c>
     </row>
     <row r="11">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>47.48203715814138</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.53682738164309</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>179.4404601920395</v>
+        <v>385.4920101035037</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2143,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>70.71879540144741</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.56379212038598</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2256,7 +2256,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>21.69946940036153</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>69.90869425880435</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>167.4757498247141</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>83.7221332419082</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.7994924795546</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -2481,19 +2481,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>110.4827588140764</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>161.5901221570377</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>251.5637456496635</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>181.7401308265976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>6.92691122580971</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -2687,16 +2687,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>52.30718827170665</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.98329378456267</v>
+        <v>52.3242754606483</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2727,7 +2727,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="E29" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.3236495658967</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2876,22 +2876,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>68.36452055758777</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>140.2558790731718</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>114.3571814058517</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="X32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>24.2942815721174</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>20.54110546596223</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
         <v>195.3773027531635</v>
@@ -3170,10 +3170,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>49.7041147796231</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>99.64080528550691</v>
       </c>
       <c r="U34" t="n">
-        <v>180.1867230488785</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>249.8291171763719</v>
       </c>
       <c r="V35" t="n">
-        <v>269.555124012547</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>96.5546107088675</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3407,13 +3407,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>42.43741174507667</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.4289810093777</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>343.6465684039909</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
@@ -3647,10 +3647,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>135.3112205476272</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>166.6895325984407</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,7 +3675,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>98.19430687638531</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
-        <v>343.6465684039908</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>38.6973077781095</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>65.01598051309922</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>25.69389402768508</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>387.4601690373236</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502168</v>
+        <v>89.89083853279845</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66.26137794101579</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>68.58775494387491</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>80.59861367317238</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1512.649465305775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1255.588973565285</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>905.7514189017662</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>781.4127864910664</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>610.3194140527829</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>450.8247693756929</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>289.9139542440124</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>289.9139542440124</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>122.6635631695558</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>781.4127864910664</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="C20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="D20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="E20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="F20" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H20" t="n">
         <v>31.21222238001735</v>
@@ -5755,22 +5755,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L20" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M20" t="n">
-        <v>285.3976938477716</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N20" t="n">
-        <v>671.6489458004863</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O20" t="n">
-        <v>1057.900197753201</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P20" t="n">
-        <v>1239.450112205576</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q20" t="n">
         <v>1560.611119000868</v>
@@ -5779,25 +5779,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T20" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U20" t="n">
-        <v>946.0630680013373</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V20" t="n">
-        <v>596.225513337818</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="X20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.4652124729866</v>
+        <v>731.5065885437173</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>710.0430642665517</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C21" t="n">
-        <v>576.0479930154975</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D21" t="n">
-        <v>459.1508352348899</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E21" t="n">
-        <v>338.6580192272179</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F21" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G21" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H21" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J21" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L21" t="n">
-        <v>31.21222238001735</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M21" t="n">
-        <v>401.8573631427234</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N21" t="n">
-        <v>788.1086150954382</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O21" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P21" t="n">
         <v>1560.611119000868</v>
@@ -5870,13 +5870,13 @@
         <v>1095.928434440403</v>
       </c>
       <c r="W21" t="n">
-        <v>1095.928434440403</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X21" t="n">
-        <v>919.6024525792959</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y21" t="n">
-        <v>850.3460969021384</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.5925715909368</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="C22" t="n">
-        <v>683.4991991526533</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D22" t="n">
-        <v>524.0045544755633</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E22" t="n">
-        <v>363.0937393438827</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F22" t="n">
-        <v>198.4626134544739</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G22" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H22" t="n">
         <v>31.21222238001735</v>
@@ -5910,7 +5910,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J22" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K22" t="n">
         <v>199.8470995074661</v>
@@ -5934,28 +5934,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S22" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T22" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U22" t="n">
-        <v>1288.946632556178</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.946632556178</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.946632556178</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="X22" t="n">
-        <v>1267.027976596216</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="Y22" t="n">
-        <v>1042.292277984981</v>
+        <v>1020.806360741241</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>511.6577019823552</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="C23" t="n">
-        <v>511.6577019823552</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="D23" t="n">
-        <v>511.6577019823552</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="E23" t="n">
-        <v>511.6577019823552</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="F23" t="n">
-        <v>117.5639850629442</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="G23" t="n">
-        <v>117.5639850629442</v>
+        <v>200.3796464453851</v>
       </c>
       <c r="H23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5998,10 +5998,10 @@
         <v>1057.900197753201</v>
       </c>
       <c r="M23" t="n">
-        <v>1174.359867048153</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N23" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O23" t="n">
         <v>1560.611119000868</v>
@@ -6016,25 +6016,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T23" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U23" t="n">
-        <v>946.0630680013373</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V23" t="n">
-        <v>596.225513337818</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W23" t="n">
-        <v>511.6577019823552</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="X23" t="n">
-        <v>511.6577019823552</v>
+        <v>594.4733633647961</v>
       </c>
       <c r="Y23" t="n">
-        <v>511.6577019823552</v>
+        <v>594.4733633647961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C24" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D24" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E24" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F24" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M24" t="n">
-        <v>758.5490957328082</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N24" t="n">
-        <v>1144.800347685523</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
@@ -6107,13 +6107,13 @@
         <v>990.2069173191283</v>
       </c>
       <c r="W24" t="n">
-        <v>990.2069173191283</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X24" t="n">
-        <v>813.880935458021</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y24" t="n">
-        <v>813.880935458021</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>630.7621873641457</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C25" t="n">
-        <v>459.6688149258622</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D25" t="n">
-        <v>459.6688149258622</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E25" t="n">
-        <v>459.6688149258622</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F25" t="n">
-        <v>348.0700686490173</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G25" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H25" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I25" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
         <v>459.7441997875264</v>
@@ -6174,25 +6174,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S25" t="n">
-        <v>1560.611119000868</v>
+        <v>1397.388773387698</v>
       </c>
       <c r="T25" t="n">
-        <v>1560.611119000868</v>
+        <v>1157.8400343644</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.611119000868</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.611119000868</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="W25" t="n">
-        <v>1281.541454509742</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.197592369425</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.4618937581901</v>
+        <v>875.0418869105245</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M26" t="n">
-        <v>671.6489458004863</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N26" t="n">
-        <v>1057.900197753201</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O26" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P26" t="n">
         <v>1560.611119000868</v>
@@ -6253,22 +6253,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U26" t="n">
-        <v>1303.550627260378</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V26" t="n">
-        <v>1303.550627260378</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W26" t="n">
-        <v>919.7903263955463</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="X26" t="n">
-        <v>525.6966094761353</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y26" t="n">
         <v>342.1207197522994</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.9527650369019</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C27" t="n">
-        <v>58.9576937858476</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D27" t="n">
-        <v>51.96081375977718</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E27" t="n">
-        <v>51.96081375977718</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F27" t="n">
-        <v>51.96081375977718</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G27" t="n">
-        <v>51.96081375977718</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H27" t="n">
         <v>51.96081375977718</v>
@@ -6311,22 +6311,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>610.2763318953653</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N27" t="n">
-        <v>610.2763318953653</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O27" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P27" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
@@ -6335,22 +6335,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U27" t="n">
-        <v>1095.928434440403</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V27" t="n">
-        <v>882.216907433437</v>
+        <v>1238.90958210821</v>
       </c>
       <c r="W27" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X27" t="n">
-        <v>492.6577573086585</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y27" t="n">
-        <v>333.2557976724885</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.546072681154</v>
+        <v>953.2956816066974</v>
       </c>
       <c r="C28" t="n">
-        <v>949.4527002428704</v>
+        <v>782.2023091684139</v>
       </c>
       <c r="D28" t="n">
-        <v>789.9580555657803</v>
+        <v>622.7076644913238</v>
       </c>
       <c r="E28" t="n">
-        <v>629.0472404340999</v>
+        <v>461.7968493596433</v>
       </c>
       <c r="F28" t="n">
-        <v>464.4161145446911</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="G28" t="n">
         <v>297.1657234702345</v>
@@ -6384,16 +6384,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6408,28 +6408,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T28" t="n">
-        <v>1134.67061185748</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V28" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W28" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="X28" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="Y28" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D29" t="n">
-        <v>819.3996562188394</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E29" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F29" t="n">
-        <v>425.3059392994284</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G29" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
         <v>31.21222238001735</v>
@@ -6475,16 +6475,16 @@
         <v>1444.151449705916</v>
       </c>
       <c r="N29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R29" t="n">
         <v>1560.611119000868</v>
@@ -6493,22 +6493,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1343.112483075719</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>1086.05199133523</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>480.5903684413843</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C30" t="n">
-        <v>346.59529719033</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D30" t="n">
-        <v>229.6981394097224</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E30" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.359867048153</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N30" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O30" t="n">
         <v>1560.611119000868</v>
@@ -6569,25 +6569,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T30" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U30" t="n">
-        <v>1383.566037844886</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>1169.854510837919</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W30" t="n">
-        <v>956.6213425742483</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X30" t="n">
-        <v>780.295360713141</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y30" t="n">
-        <v>620.893401076971</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>765.5833643461972</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="C31" t="n">
-        <v>765.5833643461972</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D31" t="n">
-        <v>606.0887196691071</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E31" t="n">
-        <v>606.0887196691071</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F31" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G31" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
         <v>31.21222238001735</v>
@@ -6645,28 +6645,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S31" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T31" t="n">
-        <v>1560.611119000868</v>
+        <v>1173.434328105822</v>
       </c>
       <c r="U31" t="n">
-        <v>1277.812971546992</v>
+        <v>890.6361806519465</v>
       </c>
       <c r="V31" t="n">
-        <v>1003.927226486514</v>
+        <v>616.7504355914684</v>
       </c>
       <c r="W31" t="n">
-        <v>1003.927226486514</v>
+        <v>616.7504355914684</v>
       </c>
       <c r="X31" t="n">
-        <v>765.5833643461972</v>
+        <v>378.4065734511518</v>
       </c>
       <c r="Y31" t="n">
-        <v>765.5833643461972</v>
+        <v>378.4065734511518</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>432.9195465531059</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C32" t="n">
-        <v>432.9195465531059</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D32" t="n">
-        <v>38.82582963369487</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E32" t="n">
-        <v>38.82582963369487</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F32" t="n">
-        <v>38.82582963369487</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G32" t="n">
-        <v>38.82582963369487</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H32" t="n">
         <v>31.21222238001735</v>
@@ -6700,16 +6700,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L32" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M32" t="n">
-        <v>1174.359867048153</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N32" t="n">
         <v>1560.611119000868</v>
@@ -6736,16 +6736,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V32" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W32" t="n">
-        <v>827.0132634725169</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="X32" t="n">
-        <v>432.9195465531059</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y32" t="n">
-        <v>432.9195465531059</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>600.5876713711716</v>
+        <v>532.3057386166065</v>
       </c>
       <c r="C33" t="n">
-        <v>576.0479930154975</v>
+        <v>398.3106673655522</v>
       </c>
       <c r="D33" t="n">
-        <v>459.1508352348899</v>
+        <v>281.4135095849446</v>
       </c>
       <c r="E33" t="n">
-        <v>338.6580192272179</v>
+        <v>160.9206935772726</v>
       </c>
       <c r="F33" t="n">
-        <v>229.6981394097224</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="G33" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H33" t="n">
         <v>51.96081375977718</v>
@@ -6782,49 +6782,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>610.2763318953653</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N33" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O33" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P33" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q33" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W33" t="n">
-        <v>936.3156128684487</v>
+        <v>882.216907433437</v>
       </c>
       <c r="X33" t="n">
-        <v>759.9896310073416</v>
+        <v>832.0107308883631</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.5876713711716</v>
+        <v>672.6087712521932</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>629.0472404340999</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="C34" t="n">
-        <v>629.0472404340999</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D34" t="n">
-        <v>629.0472404340999</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S34" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T34" t="n">
-        <v>1049.39789353288</v>
+        <v>1273.572072814609</v>
       </c>
       <c r="U34" t="n">
-        <v>867.3911025744164</v>
+        <v>990.7739253607333</v>
       </c>
       <c r="V34" t="n">
-        <v>867.3911025744164</v>
+        <v>990.7739253607333</v>
       </c>
       <c r="W34" t="n">
-        <v>867.3911025744164</v>
+        <v>711.7042608696077</v>
       </c>
       <c r="X34" t="n">
-        <v>629.0472404340999</v>
+        <v>711.7042608696077</v>
       </c>
       <c r="Y34" t="n">
-        <v>629.0472404340999</v>
+        <v>711.7042608696077</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F35" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G35" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H35" t="n">
         <v>31.21222238001735</v>
@@ -6940,22 +6940,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L35" t="n">
-        <v>671.6489458004863</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M35" t="n">
-        <v>853.1988602528609</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N35" t="n">
-        <v>1239.450112205576</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O35" t="n">
-        <v>1239.450112205576</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P35" t="n">
-        <v>1239.450112205576</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q35" t="n">
         <v>1560.611119000868</v>
@@ -6970,19 +6970,19 @@
         <v>1338.404634947726</v>
       </c>
       <c r="U35" t="n">
-        <v>1081.344143207237</v>
+        <v>1086.05199133523</v>
       </c>
       <c r="V35" t="n">
-        <v>809.0662401642599</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y35" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>673.5779028224343</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C36" t="n">
-        <v>576.0479930154975</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D36" t="n">
-        <v>459.1508352348899</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="E36" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F36" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M36" t="n">
-        <v>1189.965978238161</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N36" t="n">
         <v>1560.611119000868</v>
@@ -7043,25 +7043,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U36" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>990.2069173191283</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W36" t="n">
-        <v>990.2069173191283</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X36" t="n">
-        <v>813.880935458021</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.880935458021</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.07829484979177</v>
+        <v>357.8928240364743</v>
       </c>
       <c r="C37" t="n">
-        <v>31.21222238001735</v>
+        <v>357.8928240364743</v>
       </c>
       <c r="D37" t="n">
-        <v>31.21222238001735</v>
+        <v>357.8928240364743</v>
       </c>
       <c r="E37" t="n">
-        <v>31.21222238001735</v>
+        <v>357.8928240364743</v>
       </c>
       <c r="F37" t="n">
-        <v>31.21222238001735</v>
+        <v>193.2616981470655</v>
       </c>
       <c r="G37" t="n">
         <v>31.21222238001735</v>
@@ -7119,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U37" t="n">
-        <v>1277.812971546992</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V37" t="n">
-        <v>1003.927226486514</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="W37" t="n">
-        <v>724.8575619953881</v>
+        <v>770.328229041754</v>
       </c>
       <c r="X37" t="n">
-        <v>486.5136998550715</v>
+        <v>770.328229041754</v>
       </c>
       <c r="Y37" t="n">
-        <v>261.7780012438362</v>
+        <v>545.5925304305187</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>425.3059392994282</v>
+        <v>596.225513337818</v>
       </c>
       <c r="C38" t="n">
-        <v>31.21222238001734</v>
+        <v>596.225513337818</v>
       </c>
       <c r="D38" t="n">
-        <v>31.21222238001734</v>
+        <v>596.225513337818</v>
       </c>
       <c r="E38" t="n">
-        <v>31.21222238001734</v>
+        <v>596.225513337818</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001734</v>
+        <v>202.131796418407</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001734</v>
+        <v>202.131796418407</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>671.6489458004862</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L38" t="n">
         <v>1057.900197753201</v>
       </c>
       <c r="M38" t="n">
-        <v>1444.151449705915</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N38" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O38" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P38" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000867</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.611119000867</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W38" t="n">
-        <v>1213.49337313825</v>
+        <v>596.225513337818</v>
       </c>
       <c r="X38" t="n">
-        <v>819.3996562188391</v>
+        <v>596.225513337818</v>
       </c>
       <c r="Y38" t="n">
-        <v>819.3996562188391</v>
+        <v>596.225513337818</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>532.3057386166065</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>398.3106673655521</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D39" t="n">
-        <v>281.4135095849446</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E39" t="n">
-        <v>160.9206935772726</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F39" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G39" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>372.2978437800932</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5490957328078</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>1144.800347685522</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302184</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>882.2169074334365</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>668.9837391697653</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>532.3057386166065</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>532.3057386166065</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>851.8724644036035</v>
+        <v>527.84753583939</v>
       </c>
       <c r="C40" t="n">
-        <v>683.4991991526533</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="D40" t="n">
-        <v>524.0045544755633</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E40" t="n">
-        <v>363.0937393438827</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F40" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G40" t="n">
         <v>31.21222238001735</v>
@@ -7332,7 +7332,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
         <v>199.8470995074659</v>
@@ -7341,7 +7341,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7350,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880777</v>
+        <v>1461.424950438862</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.670611857479</v>
+        <v>1461.424950438862</v>
       </c>
       <c r="U40" t="n">
-        <v>851.8724644036035</v>
+        <v>1178.626802984986</v>
       </c>
       <c r="V40" t="n">
-        <v>851.8724644036035</v>
+        <v>1178.626802984986</v>
       </c>
       <c r="W40" t="n">
-        <v>851.8724644036035</v>
+        <v>1178.626802984986</v>
       </c>
       <c r="X40" t="n">
-        <v>851.8724644036035</v>
+        <v>940.2829408446697</v>
       </c>
       <c r="Y40" t="n">
-        <v>851.8724644036035</v>
+        <v>715.5472422334344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1560.611119000867</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.517402081456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.517402081456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E41" t="n">
-        <v>772.4236851620452</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F41" t="n">
-        <v>378.3299682426343</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G41" t="n">
-        <v>31.21222238001734</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L41" t="n">
-        <v>80.69635634743133</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M41" t="n">
-        <v>466.9476083001459</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N41" t="n">
-        <v>853.1988602528605</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="O41" t="n">
-        <v>1239.450112205575</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P41" t="n">
-        <v>1239.450112205575</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q41" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000867</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000867</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000867</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W41" t="n">
-        <v>1560.611119000867</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X41" t="n">
-        <v>1560.611119000867</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y41" t="n">
-        <v>1560.611119000867</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>618.5472599225079</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C42" t="n">
-        <v>484.5521886714537</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D42" t="n">
-        <v>367.6550308908461</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E42" t="n">
-        <v>247.1622148831741</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F42" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>610.2763318953652</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M42" t="n">
-        <v>996.5275838480798</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N42" t="n">
-        <v>1144.800347685522</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O42" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P42" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q42" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.611119000867</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U42" t="n">
-        <v>1521.522929326009</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V42" t="n">
-        <v>1307.811402319043</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W42" t="n">
-        <v>1094.578234055372</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X42" t="n">
-        <v>918.2522521942645</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.8502925580946</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>267.97830240729</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="C43" t="n">
-        <v>96.88492996900646</v>
+        <v>665.85626327274</v>
       </c>
       <c r="D43" t="n">
-        <v>96.88492996900646</v>
+        <v>506.36161859565</v>
       </c>
       <c r="E43" t="n">
-        <v>31.21222238001734</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F43" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G43" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H43" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
         <v>199.8470995074659</v>
@@ -7578,7 +7578,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7587,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S43" t="n">
-        <v>1288.946632556177</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T43" t="n">
-        <v>1049.397893532879</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U43" t="n">
-        <v>766.5997460790034</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V43" t="n">
-        <v>492.7140010185253</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W43" t="n">
-        <v>492.7140010185253</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X43" t="n">
-        <v>492.7140010185253</v>
+        <v>1050.602770415861</v>
       </c>
       <c r="Y43" t="n">
-        <v>267.97830240729</v>
+        <v>1024.649342105068</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>816.6798474179369</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>816.6798474179369</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
-        <v>816.6798474179369</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994282</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001734</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001734</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004862</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L44" t="n">
-        <v>812.6422145632956</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M44" t="n">
-        <v>812.6422145632956</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N44" t="n">
-        <v>812.6422145632956</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O44" t="n">
-        <v>1198.89346651601</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.89346651601</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V44" t="n">
         <v>1210.773564337348</v>
       </c>
       <c r="W44" t="n">
-        <v>1210.773564337348</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X44" t="n">
-        <v>1210.773564337348</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="Y44" t="n">
-        <v>816.6798474179369</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272178</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K45" t="n">
-        <v>417.4634743327319</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L45" t="n">
-        <v>803.7147262854465</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M45" t="n">
-        <v>803.7147262854465</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N45" t="n">
-        <v>803.7147262854465</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O45" t="n">
-        <v>1144.800347685522</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638237</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187875</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
         <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191278</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>776.9737490554566</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>776.9737490554566</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y45" t="n">
-        <v>776.9737490554566</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.3784874632154</v>
+        <v>448.3494617917221</v>
       </c>
       <c r="C46" t="n">
-        <v>593.2851150249319</v>
+        <v>277.2560893534386</v>
       </c>
       <c r="D46" t="n">
-        <v>524.0045544755633</v>
+        <v>277.2560893534386</v>
       </c>
       <c r="E46" t="n">
-        <v>363.0937393438827</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F46" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G46" t="n">
         <v>31.21222238001735</v>
@@ -7806,7 +7806,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
         <v>199.8470995074659</v>
@@ -7815,7 +7815,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000867</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.062379977569</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.264232523693</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V46" t="n">
-        <v>764.3784874632154</v>
+        <v>860.7848667970018</v>
       </c>
       <c r="W46" t="n">
-        <v>764.3784874632154</v>
+        <v>860.7848667970018</v>
       </c>
       <c r="X46" t="n">
-        <v>764.3784874632154</v>
+        <v>860.7848667970018</v>
       </c>
       <c r="Y46" t="n">
-        <v>764.3784874632154</v>
+        <v>636.0491681857665</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O20" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>277.0331152529795</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M21" t="n">
-        <v>431.9533148118579</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9646,13 +9646,13 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M23" t="n">
-        <v>210.9262540479058</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O23" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>400.3567134917629</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O24" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M26" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N26" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>211.2853928717445</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9959,25 +9959,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O27" t="n">
-        <v>244.2964801173478</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10123,7 +10123,7 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>169.5820115701414</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
@@ -10135,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>445.9785625348323</v>
@@ -10199,13 +10199,13 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>431.9533148118579</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
-        <v>469.8744291362853</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
@@ -10430,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N33" t="n">
-        <v>239.7383945110979</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O33" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10588,25 +10588,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130617</v>
+        <v>213.1214276537053</v>
       </c>
       <c r="M35" t="n">
-        <v>276.673976429141</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>87.31214281472352</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>445.9785625348323</v>
@@ -10676,7 +10676,7 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N36" t="n">
-        <v>427.5824244671906</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10825,16 +10825,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>479.2891694234339</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130616</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072622</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>169.5820115701416</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O38" t="n">
         <v>93.18977562578313</v>
@@ -10846,7 +10846,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,16 +10904,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>205.5962513072847</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>447.7170634886342</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439668</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>145.4693717673034</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072622</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068361</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
-        <v>483.3425553759999</v>
+        <v>210.8258052166435</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11141,19 +11141,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886342</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N42" t="n">
-        <v>202.9638619164193</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O42" t="n">
-        <v>447.9042587502168</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.2891694234339</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>237.9028412576018</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O44" t="n">
-        <v>483.3425553759999</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348322</v>
+        <v>437.1312460864413</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>402.2824097071473</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530205</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>172.5023820544684</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -23822,7 +23822,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>80.40226432754852</v>
       </c>
       <c r="G18" t="n">
         <v>105.9202115588047</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,22 +23892,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>57.57455326095481</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,13 +23980,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3796477338098</v>
+        <v>31.32809782234557</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>103.8439266410487</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.24414791942229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24192,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2609541185519</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>152.5796473663186</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,16 +24217,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>140.3236625738451</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>296.2005646142749</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.10050982967618</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>52.5020558164382</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>22.93772828185112</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>128.3589522065196</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.1871754947932</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>108.8012749769918</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>158.7936483093279</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.8394155455413</v>
+        <v>133.4984338694557</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>56.77272220387903</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24733,13 +24733,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>4.660769646713106</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>127.0127821955757</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>22.72893555734282</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>122.7960702272132</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>300.2619412174184</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24976,16 +24976,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>36.27612945219198</v>
       </c>
       <c r="X32" t="n">
         <v>6.484184102520089</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>108.3608389664263</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>124.858607262873</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25083,7 +25083,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>137.512446347558</v>
       </c>
       <c r="U34" t="n">
-        <v>99.78344293045856</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25171,7 +25171,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>4.660769646713106</v>
       </c>
       <c r="V35" t="n">
-        <v>76.78405510433714</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>36.10050982967624</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>91.81987115582335</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25323,10 +25323,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>5.148906154334298</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762778</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,13 +25402,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>138.5890341005534</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>36.27612945219221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>6.484184102520203</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>105.9202115588047</v>
@@ -25490,7 +25490,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>39.25150149486896</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.692906115459948</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25599,10 +25599,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>86.33354356250352</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>20.04403357805546</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>26.66732817563252</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
-        <v>60.99443286210533</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25681,13 +25681,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25712,16 +25712,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
         <v>70.03974083464111</v>
@@ -25760,10 +25760,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>156.6799949750539</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>94.2857264672645</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>196.7944475974379</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>22.73664429094868</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571174022</v>
+        <v>307.0364677885923</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.63862436821496</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89.31194328644416</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>78.70309330719134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26073,13 +26073,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150357.0455461972</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492998.9861484424</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492998.9861484423</v>
+        <v>492998.9861484421</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492998.9861484421</v>
+        <v>492998.9861484423</v>
       </c>
     </row>
     <row r="16">
@@ -26328,16 +26328,16 @@
         <v>19400.90910273512</v>
       </c>
       <c r="G2" t="n">
-        <v>19400.90910273511</v>
+        <v>63612.77240625063</v>
       </c>
       <c r="H2" t="n">
+        <v>63612.77240625065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>63612.77240625065</v>
+      </c>
+      <c r="J2" t="n">
         <v>63612.77240625064</v>
-      </c>
-      <c r="I2" t="n">
-        <v>63612.77240625063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>63612.77240625067</v>
       </c>
       <c r="K2" t="n">
         <v>63612.77240625065</v>
@@ -26349,13 +26349,13 @@
         <v>63612.77240625065</v>
       </c>
       <c r="N2" t="n">
-        <v>63612.77240625063</v>
+        <v>63612.77240625065</v>
       </c>
       <c r="O2" t="n">
-        <v>63612.77240625063</v>
+        <v>63612.77240625066</v>
       </c>
       <c r="P2" t="n">
-        <v>63612.77240625065</v>
+        <v>63612.77240625064</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106935.0246378382</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93890.65659966946</v>
       </c>
       <c r="P3" t="n">
-        <v>92221.97316067776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>338.3215741009759</v>
       </c>
       <c r="H4" t="n">
         <v>338.3215741009759</v>
@@ -26450,16 +26450,16 @@
         <v>338.3215741009759</v>
       </c>
       <c r="M4" t="n">
-        <v>338.3215741009759</v>
+        <v>338.321574100976</v>
       </c>
       <c r="N4" t="n">
         <v>338.3215741009759</v>
       </c>
       <c r="O4" t="n">
-        <v>338.3215741009758</v>
+        <v>338.3215741009759</v>
       </c>
       <c r="P4" t="n">
-        <v>338.3215741009758</v>
+        <v>338.3215741009759</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="H5" t="n">
         <v>23721.28900881319</v>
@@ -26505,13 +26505,13 @@
         <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273511</v>
+        <v>-68215.52708974818</v>
       </c>
       <c r="H6" t="n">
-        <v>-65713.56952828981</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="I6" t="n">
-        <v>39553.16182333647</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="J6" t="n">
-        <v>39553.1618233365</v>
+        <v>38719.49754809003</v>
       </c>
       <c r="K6" t="n">
-        <v>39553.16182333649</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="L6" t="n">
-        <v>39553.16182333649</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="M6" t="n">
-        <v>39553.16182333649</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="N6" t="n">
-        <v>39553.16182333647</v>
+        <v>38719.49754809005</v>
       </c>
       <c r="O6" t="n">
-        <v>39553.16182333647</v>
+        <v>-55171.15905157939</v>
       </c>
       <c r="P6" t="n">
-        <v>-52668.81133734126</v>
+        <v>38719.49754809003</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
         <v>390.1527797502169</v>
@@ -26825,13 +26825,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>183.3837519720954</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M21" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L22" t="n">
         <v>262.5223235152127</v>
@@ -36366,13 +36366,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M23" t="n">
+        <v>390.1527797502169</v>
+      </c>
+      <c r="N23" t="n">
         <v>117.6360295908603</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M26" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N26" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O27" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K28" t="n">
         <v>156.1134623456949</v>
@@ -36843,7 +36843,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N29" t="n">
-        <v>76.66972081352203</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>390.1527797502169</v>
@@ -36919,13 +36919,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N33" t="n">
-        <v>186.5450011173479</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L35" t="n">
+        <v>117.6360295908604</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M35" t="n">
-        <v>183.3837519720955</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>390.1527797502169</v>
@@ -37396,7 +37396,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N36" t="n">
-        <v>374.3890310734406</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N38" t="n">
-        <v>76.66972081352226</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>149.7704685226693</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>49.98397370445858</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502168</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M42" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N42" t="n">
-        <v>149.7704685226693</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O42" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>142.417443194757</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502168</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>344.5309307071473</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>
